--- a/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>ELEV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E17" s="3">
         <v>12300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5100</v>
       </c>
       <c r="F17" s="3">
         <v>5100</v>
       </c>
       <c r="G17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1006,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-5100</v>
+        <v>-12300</v>
       </c>
       <c r="F18" s="3">
         <v>-5100</v>
       </c>
       <c r="G18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1036,11 +1069,14 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,28 +1084,31 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-5100</v>
+        <v>-12300</v>
       </c>
       <c r="F21" s="3">
         <v>-5100</v>
       </c>
       <c r="G21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-8900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-5100</v>
       </c>
       <c r="F23" s="3">
         <v>-5100</v>
       </c>
       <c r="G23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-8900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-5100</v>
       </c>
       <c r="F26" s="3">
         <v>-5100</v>
       </c>
       <c r="G26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-5100</v>
       </c>
       <c r="F27" s="3">
         <v>-5100</v>
       </c>
       <c r="G27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-8900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1384,40 +1453,46 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-5100</v>
       </c>
       <c r="F33" s="3">
         <v>-5100</v>
       </c>
       <c r="G33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-8900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-5100</v>
       </c>
       <c r="F35" s="3">
         <v>-5100</v>
       </c>
       <c r="G35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-8900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,23 +1619,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E41" s="3">
         <v>155200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>158000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,23 +1745,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,23 +1777,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E46" s="3">
         <v>158400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>159000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>71100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1749,11 +1856,11 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,14 +1981,14 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,23 +2033,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E54" s="3">
         <v>158500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>159100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>71800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,23 +2095,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,23 +2157,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,23 +2189,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2125,8 +2270,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,23 +2381,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2339,11 +2506,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>97200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,23 +2555,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,23 +2683,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E76" s="3">
         <v>149600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>155300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-28100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-5100</v>
       </c>
       <c r="F81" s="3">
         <v>-5100</v>
       </c>
       <c r="G81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-8900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,11 +2859,14 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>92000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>64800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>25200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>88100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23600</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>ELEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +991,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E17" s="3">
         <v>9600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5100</v>
       </c>
       <c r="G17" s="3">
         <v>5100</v>
       </c>
       <c r="H17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1036,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-5100</v>
       </c>
       <c r="G18" s="3">
         <v>-5100</v>
       </c>
       <c r="H18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-8900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1072,11 +1106,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,31 +1121,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-5100</v>
       </c>
       <c r="G21" s="3">
         <v>-5100</v>
       </c>
       <c r="H21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-8900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1179,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-5100</v>
       </c>
       <c r="G23" s="3">
         <v>-5100</v>
       </c>
       <c r="H23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-8900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-5100</v>
       </c>
       <c r="G26" s="3">
         <v>-5100</v>
       </c>
       <c r="H26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-5100</v>
       </c>
       <c r="G27" s="3">
         <v>-5100</v>
       </c>
       <c r="H27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1456,43 +1526,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-5100</v>
       </c>
       <c r="G33" s="3">
         <v>-5100</v>
       </c>
       <c r="H33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-5100</v>
       </c>
       <c r="G35" s="3">
         <v>-5100</v>
       </c>
       <c r="H35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,26 +1706,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E41" s="3">
         <v>146300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>155200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>158000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,31 +1739,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>79100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,26 +1844,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,26 +1879,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E46" s="3">
         <v>149400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>158400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>159000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>71100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1859,11 +1967,11 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1984,14 +2104,14 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,26 +2159,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134300</v>
+      </c>
+      <c r="E54" s="3">
         <v>149500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>158500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>159100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>71800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,26 +2226,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,26 +2294,29 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,26 +2329,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2273,8 +2419,8 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,26 +2539,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2509,11 +2677,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>97200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,26 +2729,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,26 +2869,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E76" s="3">
         <v>140700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>149600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>155300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-28100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-5100</v>
       </c>
       <c r="G81" s="3">
         <v>-5100</v>
       </c>
       <c r="H81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2862,11 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3394,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-79300</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,31 +3596,34 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>92000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>64800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>25200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-93300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>88100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23600</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>ELEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E12" s="3">
         <v>13600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1018,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E17" s="3">
         <v>17400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5100</v>
       </c>
       <c r="H17" s="3">
         <v>5100</v>
       </c>
       <c r="I17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1066,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-5100</v>
       </c>
       <c r="H18" s="3">
         <v>-5100</v>
       </c>
       <c r="I18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-8900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1109,11 +1143,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,34 +1158,37 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-5100</v>
       </c>
       <c r="H21" s="3">
         <v>-5100</v>
       </c>
       <c r="I21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-8900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-5100</v>
       </c>
       <c r="H23" s="3">
         <v>-5100</v>
       </c>
       <c r="I23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-8900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-5100</v>
       </c>
       <c r="H26" s="3">
         <v>-5100</v>
       </c>
       <c r="I26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-5100</v>
       </c>
       <c r="H27" s="3">
         <v>-5100</v>
       </c>
       <c r="I27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-8900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1529,46 +1599,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-5100</v>
       </c>
       <c r="H33" s="3">
         <v>-5100</v>
       </c>
       <c r="I33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-8900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-5100</v>
       </c>
       <c r="H35" s="3">
         <v>-5100</v>
       </c>
       <c r="I35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-8900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E41" s="3">
         <v>53000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>155200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>158000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,17 +1829,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E42" s="3">
         <v>79100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1768,8 +1858,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,29 +1943,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,29 +1981,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E46" s="3">
         <v>134200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>149400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>158400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>159000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>71100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1970,11 +2078,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,13 +2209,16 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2107,14 +2227,14 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E54" s="3">
         <v>134300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>149500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>158500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>159100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2357,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,29 +2431,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,29 +2469,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E60" s="3">
         <v>10400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2422,8 +2568,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,11 +2848,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>97200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E76" s="3">
         <v>123900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>140700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>149600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>155300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-28100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-5100</v>
       </c>
       <c r="H81" s="3">
         <v>-5100</v>
       </c>
       <c r="I81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-8900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3064,11 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,17 +3624,20 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79300</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3423,8 +3653,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3599,31 +3845,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>92000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>64800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>25200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-93300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>88100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23600</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>ELEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E12" s="3">
         <v>16300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1045,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E17" s="3">
         <v>20100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5100</v>
       </c>
       <c r="I17" s="3">
         <v>5100</v>
       </c>
       <c r="J17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1096,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-5100</v>
       </c>
       <c r="I18" s="3">
         <v>-5100</v>
       </c>
       <c r="J18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,11 +1154,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1146,11 +1180,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,60 +1195,63 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-5100</v>
       </c>
       <c r="I21" s="3">
         <v>-5100</v>
       </c>
       <c r="J21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-5100</v>
       </c>
       <c r="I23" s="3">
         <v>-5100</v>
       </c>
       <c r="J23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-5100</v>
       </c>
       <c r="I26" s="3">
         <v>-5100</v>
       </c>
       <c r="J26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-5100</v>
       </c>
       <c r="I27" s="3">
         <v>-5100</v>
       </c>
       <c r="J27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,11 +1646,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1602,49 +1672,55 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-5100</v>
       </c>
       <c r="I33" s="3">
         <v>-5100</v>
       </c>
       <c r="J33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-5100</v>
       </c>
       <c r="I35" s="3">
         <v>-5100</v>
       </c>
       <c r="J35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,32 +1880,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E41" s="3">
         <v>53900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>146300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>155200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>158000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,20 +1919,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E42" s="3">
         <v>68700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>79100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1861,8 +1951,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,32 +2042,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,32 +2083,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E46" s="3">
         <v>123700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>134200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>149400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>158400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>159000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>71100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,13 +2165,16 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2081,11 +2189,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,17 +2329,20 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -2230,14 +2350,14 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E54" s="3">
         <v>123800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>134300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>149500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>158500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>159100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>71800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2488,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,32 +2568,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
         <v>17800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,32 +2609,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E60" s="3">
         <v>19100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,13 +2650,16 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>29300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2571,8 +2717,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,32 +2855,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E66" s="3">
         <v>19100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2851,11 +3019,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>97200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,32 +3077,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-131200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-92400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-72500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,32 +3241,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E76" s="3">
         <v>104700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>123900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>140700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>149600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>155300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-28100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-5100</v>
       </c>
       <c r="I81" s="3">
         <v>-5100</v>
       </c>
       <c r="J81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,11 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,20 +3854,23 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E94" s="3">
         <v>10300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-79300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3656,8 +3886,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,13 +4076,16 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>29500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3848,31 +4094,34 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>92000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>64800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>25200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-93300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>88100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>61400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23600</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>ELEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="3">
         <v>34300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E17" s="3">
         <v>38500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5100</v>
       </c>
       <c r="J17" s="3">
         <v>5100</v>
       </c>
       <c r="K17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1125,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-5100</v>
       </c>
       <c r="J18" s="3">
         <v>-5100</v>
       </c>
       <c r="K18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-8900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,14 +1187,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1183,11 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,49 +1231,52 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-5100</v>
       </c>
       <c r="J21" s="3">
         <v>-5100</v>
       </c>
       <c r="K21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-8900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1253,8 +1292,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1268,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-5100</v>
       </c>
       <c r="J23" s="3">
         <v>-5100</v>
       </c>
       <c r="K23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-5100</v>
       </c>
       <c r="J26" s="3">
         <v>-5100</v>
       </c>
       <c r="K26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-5100</v>
       </c>
       <c r="J27" s="3">
         <v>-5100</v>
       </c>
       <c r="K27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,14 +1715,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1675,52 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-5100</v>
       </c>
       <c r="J33" s="3">
         <v>-5100</v>
       </c>
       <c r="K33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-5100</v>
       </c>
       <c r="J35" s="3">
         <v>-5100</v>
       </c>
       <c r="K35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E41" s="3">
         <v>52600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>146300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>155200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>158000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,23 +2008,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E42" s="3">
         <v>55300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>68700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>79100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1954,8 +2043,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,35 +2140,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E46" s="3">
         <v>110100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>123700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>134200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>149400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>158400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>159000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>71100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2177,7 +2284,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2192,11 +2299,11 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,20 +2448,23 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -2353,14 +2472,14 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E54" s="3">
         <v>111500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>134300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>149500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>158500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>159100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>71800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,35 +2618,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,35 +2704,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E60" s="3">
         <v>15100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,17 +2792,20 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E61" s="3">
         <v>29300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2694,13 +2836,16 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2720,8 +2865,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E66" s="3">
         <v>44400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3022,11 +3189,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>97200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-131200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-92400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E76" s="3">
         <v>67100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>104700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>123900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>140700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>149600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>155300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-28100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-5100</v>
       </c>
       <c r="J81" s="3">
         <v>-5100</v>
       </c>
       <c r="K81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,11 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-44200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,23 +4083,26 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E94" s="3">
         <v>13400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-79300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3889,8 +4118,8 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,17 +4321,20 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>29500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4097,31 +4342,34 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>92000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>64800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>25200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-93300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>88100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23600</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>ELEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E17" s="3">
         <v>18500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5100</v>
       </c>
       <c r="K17" s="3">
         <v>5100</v>
       </c>
       <c r="L17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-38500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-5100</v>
       </c>
       <c r="K18" s="3">
         <v>-5100</v>
       </c>
       <c r="L18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,17 +1221,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1219,11 +1253,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1268,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-38200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-5100</v>
       </c>
       <c r="K21" s="3">
         <v>-5100</v>
       </c>
       <c r="L21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-8900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,11 +1315,11 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1335,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,66 +1362,69 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-38800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-5100</v>
       </c>
       <c r="K23" s="3">
         <v>-5100</v>
       </c>
       <c r="L23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1503,46 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-38800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-5100</v>
       </c>
       <c r="K26" s="3">
         <v>-5100</v>
       </c>
       <c r="L26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1550,46 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-38800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-5100</v>
       </c>
       <c r="K27" s="3">
         <v>-5100</v>
       </c>
       <c r="L27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,17 +1785,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1747,11 +1817,14 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1832,46 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-38800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-5100</v>
       </c>
       <c r="K33" s="3">
         <v>-5100</v>
       </c>
       <c r="L33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +1926,98 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-38800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-5100</v>
       </c>
       <c r="K35" s="3">
         <v>-5100</v>
       </c>
       <c r="L35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E41" s="3">
         <v>45900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>146300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>155200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>158000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,26 +2098,29 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E42" s="3">
         <v>44400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>55300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>68700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>79100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,8 +2136,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E46" s="3">
         <v>93000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>110100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>123700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>134200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>149400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>158400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>159000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>71100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2287,7 +2395,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2302,11 +2410,11 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,23 +2568,26 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -2475,14 +2595,14 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E54" s="3">
         <v>94200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>111500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>134300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>149500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>158500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>159100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2749,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E60" s="3">
         <v>15700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,20 +2935,23 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E61" s="3">
         <v>29400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2839,13 +2982,16 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2868,8 +3014,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E66" s="3">
         <v>45100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,11 +3360,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>97200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>150300</v>
+        <v>-167300</v>
       </c>
       <c r="E72" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-131200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E76" s="3">
         <v>49000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>67100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>104700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>123900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>140700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>149600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>155300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-28100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3770,46 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-38800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-5100</v>
       </c>
       <c r="K81" s="3">
         <v>-5100</v>
       </c>
       <c r="L81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3669,11 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-44200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,26 +4313,29 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100000</v>
+        <v>26600</v>
       </c>
       <c r="E94" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F94" s="3">
         <v>13400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-79300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4121,8 +4351,8 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,20 +4567,23 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>29500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4345,31 +4591,34 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>92000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>64800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>25200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>194100</v>
+        <v>10000</v>
       </c>
       <c r="E102" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-93300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>88100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23600</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>ELEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,22 +1018,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>5100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E17" s="3">
         <v>16700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5100</v>
       </c>
       <c r="L17" s="3">
         <v>5100</v>
       </c>
       <c r="M17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-38500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-5100</v>
       </c>
       <c r="L18" s="3">
         <v>-5100</v>
       </c>
       <c r="M18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,20 +1255,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1256,11 +1290,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,61 +1305,64 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-18100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-38200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-5100</v>
       </c>
       <c r="L21" s="3">
         <v>-5100</v>
       </c>
       <c r="M21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-8900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1338,8 +1378,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1353,66 +1393,72 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-10100</v>
       </c>
       <c r="E23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-5100</v>
       </c>
       <c r="L23" s="3">
         <v>-5100</v>
       </c>
       <c r="M23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1426,8 +1472,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-10100</v>
       </c>
       <c r="E26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-19000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-5100</v>
       </c>
       <c r="L26" s="3">
         <v>-5100</v>
       </c>
       <c r="M26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-10100</v>
       </c>
       <c r="E27" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-5100</v>
       </c>
       <c r="L27" s="3">
         <v>-5100</v>
       </c>
       <c r="M27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,20 +1855,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1820,58 +1890,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-10100</v>
       </c>
       <c r="E33" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-5100</v>
       </c>
       <c r="L33" s="3">
         <v>-5100</v>
       </c>
       <c r="M33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-10100</v>
       </c>
       <c r="E35" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-5100</v>
       </c>
       <c r="L35" s="3">
         <v>-5100</v>
       </c>
       <c r="M35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E41" s="3">
         <v>55900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>146300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>155200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,29 +2188,32 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E42" s="3">
         <v>18000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>44400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>55300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>68700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>79100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2229,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E46" s="3">
         <v>75800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>110100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>123700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>134200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>149400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>158400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>159000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>71100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2398,7 +2506,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2413,11 +2521,11 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,26 +2688,29 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -2598,14 +2718,14 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E54" s="3">
         <v>76900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>111500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>123800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>134300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>149500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>158500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>159100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,23 +3078,26 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E61" s="3">
         <v>29600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3017,8 +3163,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E66" s="3">
         <v>43100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3363,11 +3531,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>97200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-177400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-167300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-131200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E76" s="3">
         <v>33800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>67100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>104700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>123900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>140700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>149600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>155300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-28100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-10100</v>
       </c>
       <c r="E81" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-5100</v>
       </c>
       <c r="L81" s="3">
         <v>-5100</v>
       </c>
       <c r="M81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,11 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-44200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,29 +4543,32 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E94" s="3">
         <v>26600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-79300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4354,8 +4584,8 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,23 +4813,26 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>29500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4594,31 +4840,34 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>92000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>64800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>25200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E102" s="3">
         <v>10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-93300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>88100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23600</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>ELEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,11 +1038,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,8 +1055,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1152,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>9800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>5100</v>
       </c>
       <c r="M17" s="3">
         <v>5100</v>
       </c>
       <c r="N17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-38500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-5100</v>
       </c>
       <c r="M18" s="3">
         <v>-5100</v>
       </c>
       <c r="N18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-8900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,23 +1289,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1293,11 +1327,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,67 +1342,70 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-38200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-5100</v>
       </c>
       <c r="M21" s="3">
         <v>-5100</v>
       </c>
       <c r="N21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-8900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1421,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-38800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-5100</v>
       </c>
       <c r="M23" s="3">
         <v>-5100</v>
       </c>
       <c r="N23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1460,8 +1506,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1475,8 +1521,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-5100</v>
       </c>
       <c r="M26" s="3">
         <v>-5100</v>
       </c>
       <c r="N26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-5100</v>
       </c>
       <c r="M27" s="3">
         <v>-5100</v>
       </c>
       <c r="N27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,23 +1925,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1893,61 +1963,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-5100</v>
       </c>
       <c r="M33" s="3">
         <v>-5100</v>
       </c>
       <c r="N33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-5100</v>
       </c>
       <c r="M35" s="3">
         <v>-5100</v>
       </c>
       <c r="N35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2227,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E41" s="3">
         <v>106300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>146300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>155200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>158000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,32 +2278,35 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E42" s="3">
         <v>1600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>44400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>55300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>68700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>79100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2322,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,44 +2437,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2490,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E46" s="3">
         <v>109400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>75800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>93000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>110100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>123700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>134200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>149400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>158400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>159000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>71100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2509,7 +2617,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2524,11 +2632,11 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,29 +2808,32 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -2721,14 +2841,14 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E54" s="3">
         <v>110400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>111500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>123800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>134300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>149500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>158500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>159100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3011,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,44 +3115,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3168,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
         <v>8400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,26 +3221,29 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3166,8 +3312,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E66" s="3">
         <v>38200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3534,11 +3702,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>97200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-188100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-177400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-167300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-150300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-131200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-92400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E76" s="3">
         <v>72200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>104700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>123900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>140700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>149600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>155300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-28100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-5100</v>
       </c>
       <c r="M81" s="3">
         <v>-5100</v>
       </c>
       <c r="N81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4073,11 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-44200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,32 +4773,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E94" s="3">
         <v>16500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>26600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-79300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4587,8 +4817,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,26 +5059,29 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>47700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>29500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4843,31 +5089,34 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>92000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>64800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>25200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E102" s="3">
         <v>50400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-93300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>88100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>61400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23600</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
